--- a/Data/Miasto1.xlsx
+++ b/Data/Miasto1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Zrodla\Harmonogram\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5264BD2-60D7-4930-B2A3-222F3858081D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E822E5-63BE-4A56-A5A1-6B2572AA1266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2760" windowWidth="29040" windowHeight="15720" tabRatio="419" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="98">
-  <si>
-    <t>ULICA</t>
-  </si>
   <si>
     <t>IV</t>
   </si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>Rodzaj odpadów</t>
+  </si>
+  <si>
+    <t>ULICE</t>
   </si>
 </sst>
 </file>
@@ -843,6 +843,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -881,14 +889,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:IJ73"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="115" zoomScaleNormal="80" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,1749 +1363,1749 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="14"/>
       <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="A3" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="33"/>
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="47"/>
+      <c r="A5" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="49"/>
       <c r="C5" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="G6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="20" t="s">
+      <c r="K6" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="25" t="s">
+      <c r="N6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>22</v>
-      </c>
       <c r="G7" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O8" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="F9" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="19" t="s">
+      <c r="F10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="24" t="s">
+      <c r="O11" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="D12" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="J12" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="19" t="s">
+      <c r="E13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="H13" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="17" t="s">
+      <c r="J14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="24" t="s">
+    <row r="15" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D15" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="29" t="s">
+    </row>
+    <row r="16" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="H16" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="F17" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="29" t="s">
+      <c r="E18" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="23" t="s">
         <v>16</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N19" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="48"/>
+      <c r="A20" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="38"/>
       <c r="C20" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="20" t="s">
+      <c r="D21" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="K21" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="25" t="s">
+      <c r="L21" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D22" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
       <c r="M22" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="N24" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>20</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="38"/>
+      <c r="A26" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="40"/>
       <c r="C26" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="19" t="s">
+      <c r="D27" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="19" t="s">
+      <c r="J27" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="M27" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="M26" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="19" t="s">
+      <c r="N27" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="25" t="s">
+    </row>
+    <row r="28" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O27" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D28" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="N28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O28" s="17" t="s">
+      <c r="E29" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="24" t="s">
+      <c r="O29" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="19" t="s">
+      <c r="D30" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L29" s="19" t="s">
+      <c r="J30" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="M29" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="25" t="s">
+      <c r="N30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D31" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
       <c r="M31" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O31" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J32" s="20" t="s">
+      <c r="H34" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="O32" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="N33" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
       <c r="M34" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:244" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="O34" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:244" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="N35" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O35" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J36" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="L36" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="N36" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="O36" s="36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>28</v>
-      </c>
       <c r="H37" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
       <c r="M37" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:244" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:244" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="29" t="s">
+      <c r="E39" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="19" t="s">
+      <c r="H39" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="I39" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="J39" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="K39" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="19" t="s">
+      <c r="L39" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="L38" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N38" s="19" t="s">
+      <c r="N39" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="O38" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="L39" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="M39" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="N39" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="O39" s="37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
       <c r="M40" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N40" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:244" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L42" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="O40" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:244" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="29" t="s">
+    </row>
+    <row r="43" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F43" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="L41" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N41" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J42" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="K42" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="L42" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="M42" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N42" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="O42" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>18</v>
-      </c>
       <c r="G43" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
       <c r="M43" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:244" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="48"/>
+      <c r="A44" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="38"/>
       <c r="C44" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="M44" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N44" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="O44" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
@@ -3125,126 +3125,126 @@
       <c r="AE44" s="5"/>
     </row>
     <row r="45" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="L45" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="K45" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L45" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="M45" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="N45" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="O45" s="37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D46" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
       <c r="M46" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:244" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="48"/>
+      <c r="A47" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="38"/>
       <c r="C47" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K47" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L47" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L47" s="20" t="s">
-        <v>39</v>
-      </c>
       <c r="M47" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N47" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
@@ -3477,126 +3477,126 @@
       <c r="IJ47" s="7"/>
     </row>
     <row r="48" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M48" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="O48" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="35" t="s">
+      <c r="D49" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="23" t="s">
         <v>16</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="I48" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J48" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="K48" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="L48" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="M48" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="N48" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="O48" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
       <c r="M49" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N49" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O49" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:244" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="48"/>
+      <c r="A50" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="38"/>
       <c r="C50" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="20" t="s">
+      <c r="J50" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I50" s="20" t="s">
+      <c r="K50" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J50" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K50" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="L50" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N50" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
@@ -3829,126 +3829,126 @@
       <c r="IJ50" s="7"/>
     </row>
     <row r="51" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="N51" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D52" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I51" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="J51" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="K51" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L51" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M51" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N51" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="O51" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>27</v>
-      </c>
       <c r="H52" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
       <c r="M52" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N52" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O52" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:244" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="38"/>
+      <c r="C53" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K53" s="19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:244" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J53" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K53" s="19" t="s">
+      <c r="L53" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M53" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="L53" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="M53" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="N53" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
@@ -4181,126 +4181,126 @@
       <c r="IJ53" s="7"/>
     </row>
     <row r="54" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K54" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="M54" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N54" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="H54" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="J54" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="K54" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="L54" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M54" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="N54" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O54" s="37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D55" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
       <c r="M55" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O55" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:244" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="38"/>
+      <c r="C56" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="56" spans="1:244" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="E56" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H56" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I56" s="19" t="s">
-        <v>53</v>
-      </c>
       <c r="J56" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K56" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L56" s="19" t="s">
+      <c r="M56" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="M56" s="19" t="s">
-        <v>38</v>
-      </c>
       <c r="N56" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O56" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="O56" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
@@ -4533,126 +4533,126 @@
       <c r="IJ56" s="7"/>
     </row>
     <row r="57" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J57" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M57" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="N57" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O57" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I57" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="J57" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K57" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="L57" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="M57" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="N57" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="O57" s="37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D58" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
       <c r="M58" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N58" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O58" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:244" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="48"/>
+      <c r="A59" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="38"/>
       <c r="C59" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H59" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>67</v>
-      </c>
       <c r="J59" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L59" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M59" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="N59" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O59" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
@@ -4885,126 +4885,126 @@
       <c r="IJ59" s="7"/>
     </row>
     <row r="60" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="48"/>
-      <c r="B60" s="48"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I60" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="J60" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K60" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L60" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="N60" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O60" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G60" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I60" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="J60" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="K60" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="L60" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="M60" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="N60" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O60" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D61" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I61" s="31"/>
       <c r="J61" s="31"/>
       <c r="K61" s="32"/>
       <c r="L61" s="32"/>
       <c r="M61" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N61" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O61" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:244" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="48"/>
+      <c r="A62" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="38"/>
       <c r="C62" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I62" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H62" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>69</v>
-      </c>
       <c r="J62" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L62" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N62" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O62" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
@@ -5237,126 +5237,126 @@
       <c r="IJ62" s="7"/>
     </row>
     <row r="63" spans="1:244" s="10" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="48"/>
-      <c r="B63" s="48"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L63" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M63" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N63" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O63" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I63" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="J63" s="21" t="s">
+      <c r="D64" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="K63" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="L63" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M63" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="N63" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O63" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:244" s="3" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="48"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
       <c r="M64" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N64" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O64" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:244" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="48"/>
+      <c r="A65" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="38"/>
       <c r="C65" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G65" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H65" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I65" s="19" t="s">
+      <c r="J65" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J65" s="19" t="s">
+      <c r="K65" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K65" s="19" t="s">
+      <c r="L65" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="L65" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="M65" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N65" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O65" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
@@ -5589,126 +5589,126 @@
       <c r="IJ65" s="7"/>
     </row>
     <row r="66" spans="1:244" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="48"/>
-      <c r="B66" s="48"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L66" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M66" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N66" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O66" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:244" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" s="35" t="s">
+      <c r="D67" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="35" t="s">
+      <c r="F67" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G66" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H66" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I66" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J66" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="K66" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="L66" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="M66" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N66" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O66" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:244" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="48"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="28" t="s">
-        <v>18</v>
-      </c>
       <c r="G67" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
       <c r="L67" s="17"/>
       <c r="M67" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O67" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:244" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="48"/>
+      <c r="A68" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="38"/>
       <c r="C68" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I68" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K68" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J68" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K68" s="19" t="s">
+      <c r="L68" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L68" s="19" t="s">
-        <v>53</v>
-      </c>
       <c r="M68" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N68" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O68" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
@@ -5941,208 +5941,220 @@
       <c r="IJ68" s="7"/>
     </row>
     <row r="69" spans="1:244" s="10" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H69" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J69" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K69" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="L69" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="M69" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N69" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O69" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:244" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D69" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" s="27" t="s">
+      <c r="D70" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="27" t="s">
+      <c r="F70" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G69" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H69" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I69" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J69" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="K69" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L69" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="M69" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="N69" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="O69" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:244" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="48"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="28" t="s">
+      <c r="G70" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="H70" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
       <c r="L70" s="17"/>
       <c r="M70" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N70" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O70" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:244" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="48" t="s">
+      <c r="A71" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="38"/>
+      <c r="C71" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="24" t="s">
+      <c r="D71" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L71" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M71" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N71" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O71" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:244" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D71" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H71" s="19" t="s">
+      <c r="D72" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H72" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I71" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K71" s="19" t="s">
+      <c r="J72" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K72" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L72" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="L71" s="19" t="s">
+      <c r="M72" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="M71" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N71" s="19" t="s">
+      <c r="N72" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O72" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="O71" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:244" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="25" t="s">
+    </row>
+    <row r="73" spans="1:244" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="38"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D72" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="H72" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I72" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K72" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="L72" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="M72" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="N72" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O72" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:244" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D73" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F73" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
       <c r="M73" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O73" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A26:B28"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="A23:B25"/>
     <mergeCell ref="A65:B67"/>
     <mergeCell ref="A68:B70"/>
     <mergeCell ref="A71:B73"/>
@@ -6158,18 +6170,6 @@
     <mergeCell ref="A53:B55"/>
     <mergeCell ref="A56:B58"/>
     <mergeCell ref="A59:B61"/>
-    <mergeCell ref="A26:B28"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="A23:B25"/>
   </mergeCells>
   <pageMargins left="0.19184027777777779" right="0.15748031496062992" top="0.16866319444444444" bottom="0.15748031496062992" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="69" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
